--- a/modulos_pdf/Plano_Estudos_Semanal_GCM.xlsx
+++ b/modulos_pdf/Plano_Estudos_Semanal_GCM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intelangos\Desktop\GCM_Arapiraca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intelangos\Desktop\GCM_Arapiraca\modulos_pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644E257-4A44-4028-BCD6-4EDDCB634452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA4549-86E5-4B23-BA8B-F12A462EDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Quinta</t>
   </si>
   <si>
-    <t>RLM, Atualidades</t>
-  </si>
-  <si>
     <t>Resolver questões de concursos anteriores</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Sábado</t>
   </si>
   <si>
-    <t>Simulado Geral</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>Leituras de apoio + descanso mental</t>
+  </si>
+  <si>
+    <t>Direito Const., História/geografia municipal</t>
+  </si>
+  <si>
+    <t>Simulados Geral/Portugês</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -573,15 +573,15 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -590,41 +590,41 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/modulos_pdf/Plano_Estudos_Semanal_GCM.xlsx
+++ b/modulos_pdf/Plano_Estudos_Semanal_GCM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intelangos\Desktop\GCM_Arapiraca\modulos_pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA4549-86E5-4B23-BA8B-F12A462EDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FB45C-E9F9-4B79-913E-9942C5558C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>Sábado</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>2h30min</t>
-  </si>
-  <si>
     <t>Corrigir e revisar erros do simulado</t>
   </si>
   <si>
@@ -112,7 +106,13 @@
     <t>Direito Const., História/geografia municipal</t>
   </si>
   <si>
-    <t>Simulados Geral/Portugês</t>
+    <t>— + 1h</t>
+  </si>
+  <si>
+    <t>Simulados Geral/Portugês(brinde)</t>
+  </si>
+  <si>
+    <t>2h30min + 30min(brinde)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -598,33 +598,33 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
